--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05225407675749848</v>
+        <v>-0.1675053202832929</v>
       </c>
       <c r="C2">
-        <v>0.3368560989598441</v>
+        <v>0.4571627628656621</v>
       </c>
       <c r="D2">
-        <v>0.1992170795427886</v>
+        <v>0.3201243589103758</v>
       </c>
       <c r="E2">
-        <v>0.446337405493634</v>
+        <v>0.5657953330581437</v>
       </c>
       <c r="F2">
-        <v>0.4600010262589005</v>
+        <v>0.5608323877005253</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.08987703397608017</v>
+        <v>-0.05940777093550652</v>
       </c>
       <c r="C3">
-        <v>0.5080841183286242</v>
+        <v>0.470041938014426</v>
       </c>
       <c r="D3">
-        <v>0.486212353313983</v>
+        <v>0.4000049546014873</v>
       </c>
       <c r="E3">
-        <v>0.6972892895448652</v>
+        <v>0.6324594489779461</v>
       </c>
       <c r="F3">
-        <v>0.7197075874391274</v>
+        <v>0.6553741760501848</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06144343887958807</v>
+        <v>-0.04558429807018168</v>
       </c>
       <c r="C4">
-        <v>0.515660572847691</v>
+        <v>0.6717506146859975</v>
       </c>
       <c r="D4">
-        <v>0.5847517101659792</v>
+        <v>0.691874271443171</v>
       </c>
       <c r="E4">
-        <v>0.7646905976707045</v>
+        <v>0.8317898000355445</v>
       </c>
       <c r="F4">
-        <v>0.796110828729013</v>
+        <v>0.8674705192030993</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04108891445372104</v>
+        <v>-0.02022650163097881</v>
       </c>
       <c r="C5">
-        <v>0.4747591863143105</v>
+        <v>0.7137684849070793</v>
       </c>
       <c r="D5">
-        <v>0.3885413735943449</v>
+        <v>0.7655280142584943</v>
       </c>
       <c r="E5">
-        <v>0.6233308700797233</v>
+        <v>0.8749445778210722</v>
       </c>
       <c r="F5">
-        <v>0.6523330301109209</v>
+        <v>0.9174043782211272</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09832660749547555</v>
+        <v>-0.07724971183834548</v>
       </c>
       <c r="C6">
-        <v>0.4587986694775097</v>
+        <v>0.7230381564818515</v>
       </c>
       <c r="D6">
-        <v>0.2851308280455349</v>
+        <v>0.7821964137044809</v>
       </c>
       <c r="E6">
-        <v>0.5339764302340834</v>
+        <v>0.8844186868810953</v>
       </c>
       <c r="F6">
-        <v>0.5532356402755275</v>
+        <v>0.9286961563428431</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01597200999435289</v>
+        <v>-0.1830193523763199</v>
       </c>
       <c r="C7">
-        <v>0.5193978209676808</v>
+        <v>0.6659309687502694</v>
       </c>
       <c r="D7">
-        <v>0.3789920212933046</v>
+        <v>0.5232006682981125</v>
       </c>
       <c r="E7">
-        <v>0.615623278712968</v>
+        <v>0.7233261147629834</v>
       </c>
       <c r="F7">
-        <v>0.6647253083455243</v>
+        <v>0.742238275807101</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2472575667262084</v>
+        <v>-0.2095810606696748</v>
       </c>
       <c r="C8">
-        <v>0.7571169870802628</v>
+        <v>0.830624845422039</v>
       </c>
       <c r="D8">
-        <v>0.6571302820188806</v>
+        <v>0.9680408355488034</v>
       </c>
       <c r="E8">
-        <v>0.8106357270802222</v>
+        <v>0.9838906623953717</v>
       </c>
       <c r="F8">
-        <v>0.8914362775622384</v>
+        <v>1.053062171701582</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.189299325545988</v>
+        <v>-0.8159383291657744</v>
       </c>
       <c r="C9">
-        <v>1.189299325545988</v>
+        <v>0.8519594231031956</v>
       </c>
       <c r="D9">
-        <v>1.414432885744143</v>
+        <v>1.46036401875364</v>
       </c>
       <c r="E9">
-        <v>1.189299325545988</v>
+        <v>1.208455220003472</v>
+      </c>
+      <c r="F9">
+        <v>1.091747678095863</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.9652956092697305</v>
+      </c>
+      <c r="C10">
+        <v>0.9652956092697305</v>
+      </c>
+      <c r="D10">
+        <v>0.9317956132754202</v>
+      </c>
+      <c r="E10">
+        <v>0.9652956092697305</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1675053202832929</v>
+        <v>0.05225407675749848</v>
       </c>
       <c r="C2">
-        <v>0.4571627628656621</v>
+        <v>0.3368560989598441</v>
       </c>
       <c r="D2">
-        <v>0.3201243589103758</v>
+        <v>0.1992170795427886</v>
       </c>
       <c r="E2">
-        <v>0.5657953330581437</v>
+        <v>0.446337405493634</v>
       </c>
       <c r="F2">
-        <v>0.5608323877005253</v>
+        <v>0.4600010262589005</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05940777093550652</v>
+        <v>0.08987703397608017</v>
       </c>
       <c r="C3">
-        <v>0.470041938014426</v>
+        <v>0.5080841183286242</v>
       </c>
       <c r="D3">
-        <v>0.4000049546014873</v>
+        <v>0.486212353313983</v>
       </c>
       <c r="E3">
-        <v>0.6324594489779461</v>
+        <v>0.6972892895448652</v>
       </c>
       <c r="F3">
-        <v>0.6553741760501848</v>
+        <v>0.7197075874391274</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04558429807018168</v>
+        <v>0.06144343887958807</v>
       </c>
       <c r="C4">
-        <v>0.6717506146859975</v>
+        <v>0.515660572847691</v>
       </c>
       <c r="D4">
-        <v>0.691874271443171</v>
+        <v>0.5847517101659792</v>
       </c>
       <c r="E4">
-        <v>0.8317898000355445</v>
+        <v>0.7646905976707045</v>
       </c>
       <c r="F4">
-        <v>0.8674705192030993</v>
+        <v>0.796110828729013</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02022650163097881</v>
+        <v>-0.04108891445372104</v>
       </c>
       <c r="C5">
-        <v>0.7137684849070793</v>
+        <v>0.4747591863143105</v>
       </c>
       <c r="D5">
-        <v>0.7655280142584943</v>
+        <v>0.3885413735943449</v>
       </c>
       <c r="E5">
-        <v>0.8749445778210722</v>
+        <v>0.6233308700797233</v>
       </c>
       <c r="F5">
-        <v>0.9174043782211272</v>
+        <v>0.6523330301109209</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.07724971183834548</v>
+        <v>-0.09832660749547555</v>
       </c>
       <c r="C6">
-        <v>0.7230381564818515</v>
+        <v>0.4587986694775097</v>
       </c>
       <c r="D6">
-        <v>0.7821964137044809</v>
+        <v>0.2851308280455349</v>
       </c>
       <c r="E6">
-        <v>0.8844186868810953</v>
+        <v>0.5339764302340834</v>
       </c>
       <c r="F6">
-        <v>0.9286961563428431</v>
+        <v>0.5532356402755275</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1830193523763199</v>
+        <v>-0.06808104366449814</v>
       </c>
       <c r="C7">
-        <v>0.6659309687502694</v>
+        <v>0.4672898150270331</v>
       </c>
       <c r="D7">
-        <v>0.5232006682981125</v>
+        <v>0.3267507444069591</v>
       </c>
       <c r="E7">
-        <v>0.7233261147629834</v>
+        <v>0.5716211546181256</v>
       </c>
       <c r="F7">
-        <v>0.742238275807101</v>
+        <v>0.6019802159440755</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2095810606696748</v>
+        <v>-0.172913367373134</v>
       </c>
       <c r="C8">
-        <v>0.830624845422039</v>
+        <v>0.5777194860089191</v>
       </c>
       <c r="D8">
-        <v>0.9680408355488034</v>
+        <v>0.4542584475935912</v>
       </c>
       <c r="E8">
-        <v>0.9838906623953717</v>
+        <v>0.6739869788012163</v>
       </c>
       <c r="F8">
-        <v>1.053062171701582</v>
+        <v>0.7136044408303032</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.8159383291657744</v>
+        <v>-0.4453154589450415</v>
       </c>
       <c r="C9">
-        <v>0.8519594231031956</v>
+        <v>0.5137472253348959</v>
       </c>
       <c r="D9">
-        <v>1.46036401875364</v>
+        <v>0.495705757864413</v>
       </c>
       <c r="E9">
-        <v>1.208455220003472</v>
+        <v>0.7040637455972385</v>
       </c>
       <c r="F9">
-        <v>1.091747678095863</v>
+        <v>0.6679070667641346</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.9652956092697305</v>
+        <v>-0.1135594886937667</v>
       </c>
       <c r="C10">
-        <v>0.9652956092697305</v>
+        <v>0.1135594886937667</v>
       </c>
       <c r="D10">
-        <v>0.9317956132754202</v>
+        <v>0.01289575747238973</v>
       </c>
       <c r="E10">
-        <v>0.9652956092697305</v>
+        <v>0.1135594886937667</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05225407675749848</v>
+        <v>0.1578884585375505</v>
       </c>
       <c r="C2">
-        <v>0.3368560989598441</v>
+        <v>1.093026323637141</v>
       </c>
       <c r="D2">
-        <v>0.1992170795427886</v>
+        <v>3.780296758266214</v>
       </c>
       <c r="E2">
-        <v>0.446337405493634</v>
+        <v>1.944298526015543</v>
       </c>
       <c r="F2">
-        <v>0.4600010262589005</v>
+        <v>1.957160022273444</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.08987703397608017</v>
+        <v>0.3634719299439699</v>
       </c>
       <c r="C3">
-        <v>0.5080841183286242</v>
+        <v>1.11718029823843</v>
       </c>
       <c r="D3">
-        <v>0.486212353313983</v>
+        <v>3.396285412598066</v>
       </c>
       <c r="E3">
-        <v>0.6972892895448652</v>
+        <v>1.842901357261985</v>
       </c>
       <c r="F3">
-        <v>0.7197075874391274</v>
+        <v>1.825045028446704</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06144343887958807</v>
+        <v>0.2069889977446989</v>
       </c>
       <c r="C4">
-        <v>0.515660572847691</v>
+        <v>1.057700982088954</v>
       </c>
       <c r="D4">
-        <v>0.5847517101659792</v>
+        <v>3.066631775569693</v>
       </c>
       <c r="E4">
-        <v>0.7646905976707045</v>
+        <v>1.751180109403283</v>
       </c>
       <c r="F4">
-        <v>0.796110828729013</v>
+        <v>1.756924272632518</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04108891445372104</v>
+        <v>0.3612381420177023</v>
       </c>
       <c r="C5">
-        <v>0.4747591863143105</v>
+        <v>1.238224076027852</v>
       </c>
       <c r="D5">
-        <v>0.3885413735943449</v>
+        <v>3.634105439593412</v>
       </c>
       <c r="E5">
-        <v>0.6233308700797233</v>
+        <v>1.906332982349467</v>
       </c>
       <c r="F5">
-        <v>0.6523330301109209</v>
+        <v>1.891601805341011</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09832660749547555</v>
+        <v>0.2411319408316268</v>
       </c>
       <c r="C6">
-        <v>0.4587986694775097</v>
+        <v>1.211902555076712</v>
       </c>
       <c r="D6">
-        <v>0.2851308280455349</v>
+        <v>3.480821888571079</v>
       </c>
       <c r="E6">
-        <v>0.5339764302340834</v>
+        <v>1.865696086872425</v>
       </c>
       <c r="F6">
-        <v>0.5532356402755275</v>
+        <v>1.870049010965773</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06808104366449814</v>
+        <v>0.3837287414956624</v>
       </c>
       <c r="C7">
-        <v>0.4672898150270331</v>
+        <v>1.254588007131292</v>
       </c>
       <c r="D7">
-        <v>0.3267507444069591</v>
+        <v>3.75232404806467</v>
       </c>
       <c r="E7">
-        <v>0.5716211546181256</v>
+        <v>1.937091646790278</v>
       </c>
       <c r="F7">
-        <v>0.6019802159440755</v>
+        <v>1.919684637565255</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.172913367373134</v>
+        <v>0.2264048185344497</v>
       </c>
       <c r="C8">
-        <v>0.5777194860089191</v>
+        <v>1.210514367268617</v>
       </c>
       <c r="D8">
-        <v>0.4542584475935912</v>
+        <v>3.438743821690994</v>
       </c>
       <c r="E8">
-        <v>0.6739869788012163</v>
+        <v>1.854385025201345</v>
       </c>
       <c r="F8">
-        <v>0.7136044408303032</v>
+        <v>1.861309476689316</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.4453154589450415</v>
+        <v>0.3609039862410751</v>
       </c>
       <c r="C9">
-        <v>0.5137472253348959</v>
+        <v>1.204350968061618</v>
       </c>
       <c r="D9">
-        <v>0.495705757864413</v>
+        <v>3.365592077467562</v>
       </c>
       <c r="E9">
-        <v>0.7040637455972385</v>
+        <v>1.834555008024442</v>
       </c>
       <c r="F9">
-        <v>0.6679070667641346</v>
+        <v>1.81950016883021</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1135594886937667</v>
+        <v>0.2857062726838135</v>
       </c>
       <c r="C10">
-        <v>0.1135594886937667</v>
+        <v>1.290388063109146</v>
       </c>
       <c r="D10">
-        <v>0.01289575747238973</v>
+        <v>3.826836026517005</v>
       </c>
       <c r="E10">
-        <v>0.1135594886937667</v>
+        <v>1.956230054599153</v>
+      </c>
+      <c r="F10">
+        <v>1.958157187300658</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.3026413976930326</v>
+      </c>
+      <c r="C11">
+        <v>1.355495109822078</v>
+      </c>
+      <c r="D11">
+        <v>3.884252099312994</v>
+      </c>
+      <c r="E11">
+        <v>1.970850602991763</v>
+      </c>
+      <c r="F11">
+        <v>1.971081985376132</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1578884585375505</v>
+        <v>0.4394200868768915</v>
       </c>
       <c r="C2">
-        <v>1.093026323637141</v>
+        <v>0.7311110424551147</v>
       </c>
       <c r="D2">
-        <v>3.780296758266214</v>
+        <v>1.682578117590849</v>
       </c>
       <c r="E2">
-        <v>1.944298526015543</v>
+        <v>1.297142288876147</v>
       </c>
       <c r="F2">
-        <v>1.957160022273444</v>
+        <v>1.235239686460398</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3634719299439699</v>
+        <v>0.2153962797860198</v>
       </c>
       <c r="C3">
-        <v>1.11718029823843</v>
+        <v>1.302986795684886</v>
       </c>
       <c r="D3">
-        <v>3.396285412598066</v>
+        <v>4.677571906077256</v>
       </c>
       <c r="E3">
-        <v>1.842901357261985</v>
+        <v>2.162769499063008</v>
       </c>
       <c r="F3">
-        <v>1.825045028446704</v>
+        <v>2.178750962696262</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2069889977446989</v>
+        <v>0.504178189794622</v>
       </c>
       <c r="C4">
-        <v>1.057700982088954</v>
+        <v>1.31039634774812</v>
       </c>
       <c r="D4">
-        <v>3.066631775569693</v>
+        <v>4.184774737970552</v>
       </c>
       <c r="E4">
-        <v>1.751180109403283</v>
+        <v>2.04567219709575</v>
       </c>
       <c r="F4">
-        <v>1.756924272632518</v>
+        <v>2.007825482993971</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3612381420177023</v>
+        <v>0.322232619466939</v>
       </c>
       <c r="C5">
-        <v>1.238224076027852</v>
+        <v>1.251316763704151</v>
       </c>
       <c r="D5">
-        <v>3.634105439593412</v>
+        <v>3.808272273858065</v>
       </c>
       <c r="E5">
-        <v>1.906332982349467</v>
+        <v>1.951479508951622</v>
       </c>
       <c r="F5">
-        <v>1.891601805341011</v>
+        <v>1.949852208296635</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2411319408316268</v>
+        <v>0.5079447904278251</v>
       </c>
       <c r="C6">
-        <v>1.211902555076712</v>
+        <v>1.466392046323584</v>
       </c>
       <c r="D6">
-        <v>3.480821888571079</v>
+        <v>4.538018304700308</v>
       </c>
       <c r="E6">
-        <v>1.865696086872425</v>
+        <v>2.130262496665683</v>
       </c>
       <c r="F6">
-        <v>1.870049010965773</v>
+        <v>2.096589218513666</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3837287414956624</v>
+        <v>0.3328774944335463</v>
       </c>
       <c r="C7">
-        <v>1.254588007131292</v>
+        <v>1.415444145779199</v>
       </c>
       <c r="D7">
-        <v>3.75232404806467</v>
+        <v>4.344522175199605</v>
       </c>
       <c r="E7">
-        <v>1.937091646790278</v>
+        <v>2.084351739798157</v>
       </c>
       <c r="F7">
-        <v>1.919684637565255</v>
+        <v>2.085981288595052</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2264048185344497</v>
+        <v>0.5270938661561243</v>
       </c>
       <c r="C8">
-        <v>1.210514367268617</v>
+        <v>1.466508675359905</v>
       </c>
       <c r="D8">
-        <v>3.438743821690994</v>
+        <v>4.698901303729951</v>
       </c>
       <c r="E8">
-        <v>1.854385025201345</v>
+        <v>2.167694928658078</v>
       </c>
       <c r="F8">
-        <v>1.861309476689316</v>
+        <v>2.132460959010634</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3609039862410751</v>
+        <v>0.2983617769427525</v>
       </c>
       <c r="C9">
-        <v>1.204350968061618</v>
+        <v>1.395751893831891</v>
       </c>
       <c r="D9">
-        <v>3.365592077467562</v>
+        <v>4.30447533330254</v>
       </c>
       <c r="E9">
-        <v>1.834555008024442</v>
+        <v>2.074722953384991</v>
       </c>
       <c r="F9">
-        <v>1.81950016883021</v>
+        <v>2.08313215401905</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2857062726838135</v>
+        <v>0.4106355216869119</v>
       </c>
       <c r="C10">
-        <v>1.290388063109146</v>
+        <v>1.33181755496485</v>
       </c>
       <c r="D10">
-        <v>3.826836026517005</v>
+        <v>4.092714757033598</v>
       </c>
       <c r="E10">
-        <v>1.956230054599153</v>
+        <v>2.023045910757736</v>
       </c>
       <c r="F10">
-        <v>1.958157187300658</v>
+        <v>2.010722542093411</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3026413976930326</v>
+        <v>0.3748234707463745</v>
       </c>
       <c r="C11">
-        <v>1.355495109822078</v>
+        <v>1.370250310854823</v>
       </c>
       <c r="D11">
-        <v>3.884252099312994</v>
+        <v>4.504998655405332</v>
       </c>
       <c r="E11">
-        <v>1.970850602991763</v>
+        <v>2.122498210931008</v>
       </c>
       <c r="F11">
-        <v>1.971081985376132</v>
+        <v>2.121531718910878</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4394200868768915</v>
+        <v>0.2118531303557739</v>
       </c>
       <c r="C2">
-        <v>0.7311110424551147</v>
+        <v>1.305987383552482</v>
       </c>
       <c r="D2">
-        <v>1.682578117590849</v>
+        <v>5.35557751699296</v>
       </c>
       <c r="E2">
-        <v>1.297142288876147</v>
+        <v>2.314212072605482</v>
       </c>
       <c r="F2">
-        <v>1.235239686460398</v>
+        <v>2.327425548436394</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2153962797860198</v>
+        <v>0.02283322487048015</v>
       </c>
       <c r="C3">
-        <v>1.302986795684886</v>
+        <v>1.418515438886082</v>
       </c>
       <c r="D3">
-        <v>4.677571906077256</v>
+        <v>5.16977209240434</v>
       </c>
       <c r="E3">
-        <v>2.162769499063008</v>
+        <v>2.273713282805099</v>
       </c>
       <c r="F3">
-        <v>2.178750962696262</v>
+        <v>2.296681442697479</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.504178189794622</v>
+        <v>0.2134349945989513</v>
       </c>
       <c r="C4">
-        <v>1.31039634774812</v>
+        <v>1.160232958483259</v>
       </c>
       <c r="D4">
-        <v>4.184774737970552</v>
+        <v>3.154048196090197</v>
       </c>
       <c r="E4">
-        <v>2.04567219709575</v>
+        <v>1.775964018805054</v>
       </c>
       <c r="F4">
-        <v>2.007825482993971</v>
+        <v>1.781362956999537</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.322232619466939</v>
+        <v>0.03943674361467967</v>
       </c>
       <c r="C5">
-        <v>1.251316763704151</v>
+        <v>1.340425094488151</v>
       </c>
       <c r="D5">
-        <v>3.808272273858065</v>
+        <v>5.263324471644343</v>
       </c>
       <c r="E5">
-        <v>1.951479508951622</v>
+        <v>2.294193643013672</v>
       </c>
       <c r="F5">
-        <v>1.949852208296635</v>
+        <v>2.318128933296117</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5079447904278251</v>
+        <v>0.1969686117119996</v>
       </c>
       <c r="C6">
-        <v>1.466392046323584</v>
+        <v>1.570705429436083</v>
       </c>
       <c r="D6">
-        <v>4.538018304700308</v>
+        <v>5.967394291932829</v>
       </c>
       <c r="E6">
-        <v>2.130262496665683</v>
+        <v>2.442825063718814</v>
       </c>
       <c r="F6">
-        <v>2.096589218513666</v>
+        <v>2.461194875607015</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3328774944335463</v>
+        <v>0.06983087975920006</v>
       </c>
       <c r="C7">
-        <v>1.415444145779199</v>
+        <v>1.416739844804068</v>
       </c>
       <c r="D7">
-        <v>4.344522175199605</v>
+        <v>4.44628832700042</v>
       </c>
       <c r="E7">
-        <v>2.084351739798157</v>
+        <v>2.108622376576807</v>
       </c>
       <c r="F7">
-        <v>2.085981288595052</v>
+        <v>2.130753392377103</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5270938661561243</v>
+        <v>0.2152879885089396</v>
       </c>
       <c r="C8">
-        <v>1.466508675359905</v>
+        <v>1.520943876705648</v>
       </c>
       <c r="D8">
-        <v>4.698901303729951</v>
+        <v>5.737038814213995</v>
       </c>
       <c r="E8">
-        <v>2.167694928658078</v>
+        <v>2.395211642885446</v>
       </c>
       <c r="F8">
-        <v>2.132460959010634</v>
+        <v>2.412472540257287</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2983617769427525</v>
+        <v>0.05959129116111418</v>
       </c>
       <c r="C9">
-        <v>1.395751893831891</v>
+        <v>1.434755410722559</v>
       </c>
       <c r="D9">
-        <v>4.30447533330254</v>
+        <v>5.152491520827321</v>
       </c>
       <c r="E9">
-        <v>2.074722953384991</v>
+        <v>2.269910024830791</v>
       </c>
       <c r="F9">
-        <v>2.08313215401905</v>
+        <v>2.295361234929747</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4106355216869119</v>
+        <v>0.1780234371580798</v>
       </c>
       <c r="C10">
-        <v>1.33181755496485</v>
+        <v>1.510931085580928</v>
       </c>
       <c r="D10">
-        <v>4.092714757033598</v>
+        <v>5.228947591369755</v>
       </c>
       <c r="E10">
-        <v>2.023045910757736</v>
+        <v>2.286689220547855</v>
       </c>
       <c r="F10">
-        <v>2.010722542093411</v>
+        <v>2.306729160466042</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3748234707463745</v>
+        <v>0.1196591527663331</v>
       </c>
       <c r="C11">
-        <v>1.370250310854823</v>
+        <v>1.488698517646936</v>
       </c>
       <c r="D11">
-        <v>4.504998655405332</v>
+        <v>4.992931766918498</v>
       </c>
       <c r="E11">
-        <v>2.122498210931008</v>
+        <v>2.234486913570652</v>
       </c>
       <c r="F11">
-        <v>2.121531718910878</v>
+        <v>2.258327489652168</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06983087975920006</v>
+        <v>0.05307768655401681</v>
       </c>
       <c r="C7">
-        <v>1.416739844804068</v>
+        <v>1.531245982582867</v>
       </c>
       <c r="D7">
-        <v>4.44628832700042</v>
+        <v>5.066149181679623</v>
       </c>
       <c r="E7">
-        <v>2.108622376576807</v>
+        <v>2.250810783180057</v>
       </c>
       <c r="F7">
-        <v>2.130753392377103</v>
+        <v>2.280390043409765</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2152879885089396</v>
+        <v>0.1368748258908087</v>
       </c>
       <c r="C8">
-        <v>1.520943876705648</v>
+        <v>1.689563907413856</v>
       </c>
       <c r="D8">
-        <v>5.737038814213995</v>
+        <v>6.751460318728611</v>
       </c>
       <c r="E8">
-        <v>2.395211642885446</v>
+        <v>2.598357234625103</v>
       </c>
       <c r="F8">
-        <v>2.412472540257287</v>
+        <v>2.630540962681023</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05959129116111418</v>
+        <v>0.04527589459500063</v>
       </c>
       <c r="C9">
-        <v>1.434755410722559</v>
+        <v>1.985187473423592</v>
       </c>
       <c r="D9">
-        <v>5.152491520827321</v>
+        <v>9.297717034348192</v>
       </c>
       <c r="E9">
-        <v>2.269910024830791</v>
+        <v>3.04921580645716</v>
       </c>
       <c r="F9">
-        <v>2.295361234929747</v>
+        <v>3.128084520280375</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1780234371580798</v>
+        <v>-0.1230781156919481</v>
       </c>
       <c r="C10">
-        <v>1.510931085580928</v>
+        <v>2.056295129145246</v>
       </c>
       <c r="D10">
-        <v>5.228947591369755</v>
+        <v>9.159562667202785</v>
       </c>
       <c r="E10">
-        <v>2.286689220547855</v>
+        <v>3.026476939810179</v>
       </c>
       <c r="F10">
-        <v>2.306729160466042</v>
+        <v>3.147451188135231</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1196591527663331</v>
+        <v>-0.4218489719809924</v>
       </c>
       <c r="C11">
-        <v>1.488698517646936</v>
+        <v>2.349783436184865</v>
       </c>
       <c r="D11">
-        <v>4.992931766918498</v>
+        <v>10.70900605577121</v>
       </c>
       <c r="E11">
-        <v>2.234486913570652</v>
+        <v>3.272461773003805</v>
       </c>
       <c r="F11">
-        <v>2.258327489652168</v>
+        <v>3.628196780187402</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
